--- a/3.7.1/data.xlsx
+++ b/3.7.1/data.xlsx
@@ -432,7 +432,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J4" activeCellId="0" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="D10" activeCellId="1" sqref="B4:D7 D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3515625" defaultRowHeight="19.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1458,7 +1458,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:D7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
